--- a/referentials/ISO27001-2022.fr.xlsx
+++ b/referentials/ISO27001-2022.fr.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="720">
   <si>
     <t xml:space="preserve">Domaine</t>
   </si>
@@ -2088,10 +2088,26 @@
     <t xml:space="preserve">8.22 </t>
   </si>
   <si>
+    <t xml:space="preserve">Cloisonnement des réseaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diviser le réseau en périmètres de sécurité et contrôler le trafic entre eux en fonction des besoins  métier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- inventaire des groupes de services d'information, d'utilisateurs et de systèmes d'information
+- mesures de cloisonnement réseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloisonner sur les réseaux les groupes de services d’information, d’utilisateurs et de systèmes d’information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Filtrage Internet</t>
   </si>
   <si>
-    <t xml:space="preserve">Diviser le réseau en périmètres de sécurité et contrôler le trafic entre eux en fonction des besoins  métier.</t>
+    <t xml:space="preserve">Protéger les systèmes contre la compromission des programmes malveillants et empêcher l'accès aux  ressources web non autorisées.</t>
   </si>
   <si>
     <t xml:space="preserve">- mesures d'accès mises en place
@@ -2102,25 +2118,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gérer l'accès aux sites Web externes pour réduire l'exposition à tout contenu malveillant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloisonnement des réseaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protéger les systèmes contre la compromission des programmes malveillants et empêcher l'accès aux  ressources web non autorisées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- inventaire des groupes de services d'information, d'utilisateurs et de systèmes d'information
-- mesures de cloisonnement réseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôler l'inventaire des groupes de services d'information, d'utilisateurs et de systèmes d'information et la mise en place des mesures de cloisonnement réseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloisonner sur les réseaux les groupes de services d’information, d’utilisateurs et de systèmes d’information.</t>
   </si>
   <si>
     <t xml:space="preserve">8.24 </t>
@@ -2535,13 +2532,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -5080,7 +5077,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>474</v>
       </c>
@@ -5099,43 +5096,37 @@
       <c r="F89" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>622</v>
-      </c>
       <c r="H89" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>474</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="F90" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="0" t="s">
         <v>627</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>628</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,28 +5134,28 @@
         <v>474</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>632</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>530</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>634</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>292</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,28 +5163,28 @@
         <v>474</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="D92" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="E92" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="F92" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>641</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,28 +5192,28 @@
         <v>474</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="E93" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="F93" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>648</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,28 +5221,28 @@
         <v>474</v>
       </c>
       <c r="B94" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="E94" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,28 +5250,28 @@
         <v>474</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="D95" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="E95" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="0" t="s">
         <v>659</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>660</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,28 +5279,28 @@
         <v>474</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="E96" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="F96" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="0" t="s">
         <v>666</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>667</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>292</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,28 +5308,28 @@
         <v>474</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="E97" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="F97" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="H97" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,28 +5337,28 @@
         <v>474</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="E98" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="0" t="s">
         <v>680</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>681</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,28 +5366,28 @@
         <v>474</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="E99" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="0" t="s">
         <v>686</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>687</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,28 +5395,28 @@
         <v>474</v>
       </c>
       <c r="B100" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="E100" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="F100" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="0" t="s">
         <v>693</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>694</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,28 +5424,28 @@
         <v>474</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="E101" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="F101" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="H101" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="I101" s="0" t="s">
         <v>702</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,25 +5453,25 @@
         <v>9</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="F102" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="0" t="s">
         <v>707</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>708</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,25 +5479,25 @@
         <v>9</v>
       </c>
       <c r="B103" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="F103" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,27 +5505,28 @@
         <v>9</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C104" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="F104" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="G104" s="0" t="s">
         <v>718</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>719</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>720</v>
-      </c>
-    </row>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/referentials/ISO27001-2022.fr.xlsx
+++ b/referentials/ISO27001-2022.fr.xlsx
@@ -2534,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4758,7 +4758,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>474</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>474</v>
       </c>

--- a/referentials/ISO27001-2022.fr.xlsx
+++ b/referentials/ISO27001-2022.fr.xlsx
@@ -439,7 +439,7 @@
   </si>
   <si>
     <t xml:space="preserve">- procédure de marquage
-- échantillon d’information (procédure, formulaire ...)</t>
+- échantillon d’information (procédures, formulaires…)</t>
   </si>
   <si>
     <t xml:space="preserve">Contrôler la procédure de marquege et sa mise en œuvre sur un échantillon des informations de l'organisation.</t>
@@ -938,7 +938,7 @@
   <si>
     <t xml:space="preserve">- Revues indépendantes
 - Plan de suivi des revues
-- Changements dans l'organisaiton</t>
+- Changements dans l'organisation</t>
   </si>
   <si>
     <t xml:space="preserve">Contrôler que des revues indépendantes de l'approche retenue par l'organisation pour gérer et mettre en oeuvre la sécurité de l'information, y compris des personnes, processus et technologies sont menées à intervalles définis ou lorsque des changements importants sont intervenus.</t>
@@ -2395,7 +2395,7 @@
   <si>
     <t xml:space="preserve">- Plan d'audit interne
 - Audits internes réalisés
-- Plan dactions</t>
+- Plan d’actions</t>
   </si>
   <si>
     <t xml:space="preserve">Contrôler l'existence et la cohérence du plan d'audit interne, des audits internes réalisés et le suivi des plans d'action</t>
@@ -2534,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3001,7 +3001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>29</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>29</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>9</v>
       </c>
